--- a/doc/task-list-v1.xlsx
+++ b/doc/task-list-v1.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +77,7 @@
     <t>patrick</t>
   </si>
   <si>
-    <t>open</t>
+    <t>Open</t>
   </si>
   <si>
     <t>Email: aaa
@@ -109,7 +109,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,13 +123,6 @@
       <color rgb="FF002060"/>
       <name val="Helvetica"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -600,148 +593,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,10 +1070,10 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="122" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.33333333333333" customWidth="1"/>
     <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
@@ -1093,7 +1086,7 @@
     <col min="11" max="11" width="17.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" ht="18" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="120" customHeight="1" spans="1:11">
+    <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1157,7 +1150,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" ht="120" customHeight="1" spans="1:11">
+    <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1176,7 +1169,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" ht="120" customHeight="1" spans="1:11">
+    <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1195,7 +1188,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" ht="120" customHeight="1" spans="1:11">
+    <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1214,7 +1207,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" ht="120" customHeight="1" spans="1:11">
+    <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1229,7 +1222,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" ht="120" customHeight="1" spans="1:11">
+    <row r="7" customHeight="1" spans="1:11">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1244,7 +1237,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" ht="120" customHeight="1" spans="1:11">
+    <row r="8" customHeight="1" spans="1:11">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1259,7 +1252,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" ht="120" customHeight="1" spans="1:11">
+    <row r="9" customHeight="1" spans="1:11">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1274,7 +1267,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" ht="120" customHeight="1" spans="1:11">
+    <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1289,7 +1282,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" ht="120" customHeight="1" spans="1:11">
+    <row r="11" customHeight="1" spans="1:11">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1304,7 +1297,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" ht="120" customHeight="1" spans="1:11">
+    <row r="12" customHeight="1" spans="1:11">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1319,7 +1312,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" ht="120" customHeight="1" spans="1:11">
+    <row r="13" customHeight="1" spans="1:11">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1334,7 +1327,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" ht="120" customHeight="1" spans="1:11">
+    <row r="14" customHeight="1" spans="1:11">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1349,7 +1342,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" ht="120" customHeight="1" spans="1:11">
+    <row r="15" customHeight="1" spans="1:11">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1364,7 +1357,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" ht="120" customHeight="1" spans="1:11">
+    <row r="16" customHeight="1" spans="1:11">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1380,9 +1373,17 @@
       <c r="K16" s="2"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K2" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K16" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>"High,Medium,Low,Done"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>"Open,In-progress,Blocked,Done"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/doc/task-list-v1.xlsx
+++ b/doc/task-list-v1.xlsx
@@ -1070,10 +1070,10 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="122" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="133" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.33333333333333" customWidth="1"/>
     <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
@@ -1086,7 +1086,7 @@
     <col min="11" max="11" width="17.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:11">
+    <row r="1" ht="17" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1377,10 +1377,10 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>"High,Medium,Low,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
       <formula1>"Open,In-progress,Blocked,Done"</formula1>
     </dataValidation>
   </dataValidations>
